--- a/biology/Zoologie/Faune_de_la_Picardie/Faune_de_la_Picardie.xlsx
+++ b/biology/Zoologie/Faune_de_la_Picardie/Faune_de_la_Picardie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Du fait de la diversité des biotopes de la région, la Faune de Picardie présente une grande variété.
 </t>
@@ -513,9 +525,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mammifères marins
-Cétacés
-Cachalot Physeter macrocephalus (1 individu près de Saint-Valery-sur-Somme le 16 janvier 1769)
+          <t>Mammifères marins</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Cétacés</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cachalot Physeter macrocephalus (1 individu près de Saint-Valery-sur-Somme le 16 janvier 1769)
 Hyperoodon boréal Hyperoodon ampullatus (août 1829 à Cayeux-sur-Mer et 1849 au Crotoy)
 Rorqual de Rudolphi Balaenoptera borealis (11 mai 1974 en baie de Somme)
 Rorqual commun Balaenoptera physalus (notamment le 9 mai 1975)
@@ -534,10 +554,45 @@
 le Phoque veau-marin (Phoca vitulina vitulina)
 le Phoque gris (Halichoerus grypus)
 La Baie de Somme héberge une importante colonie de Phoque veau-marin (Phoca vitulina), seul site français où l'espèce est présente en permanence et s'y reproduit. C'est Picardie Nature qui en assure la protection et le suivi depuis plus de dix ans.
-La population de phoques en Baie de Somme n'est présente que depuis peu, il n'existait qu'une dizaine d'individus sédentarisés dans les années 1980-1990[1].
+La population de phoques en Baie de Somme n'est présente que depuis peu, il n'existait qu'une dizaine d'individus sédentarisés dans les années 1980-1990.
 On peut apercevoir les phoques à marée basse lorsqu'ils se "relaxent" sur les reposoirs.
-Mammifères terrestres
-La Picardie accueille une grande quantité de mammifères tels que :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Faune_de_la_Picardie</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_de_la_Picardie</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Espèces historiques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Mammifères terrestres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La Picardie accueille une grande quantité de mammifères tels que :
 Sanglier
 Chevreuil
 Cerf élaphe
@@ -562,9 +617,47 @@
 Hermine
 Putois
 Chat sauvage d'Europe
-Raton laveur
-Chauve-souris
-Le Grand Rhinolophe
+Raton laveur</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Faune_de_la_Picardie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_de_la_Picardie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Espèces historiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mammifères terrestres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Chauve-souris</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Grand Rhinolophe
 Le Petit Rhinolophe
 Le Grand Murin
 Le Vespertilion de Daubenton
@@ -580,19 +673,123 @@
 Pipistrelle commune
 La Pipistrelle de Nathusius
 La Barbastelle
-Les Oreillards roux et gris
-Oiseau
-L'estuaire de la Somme constitue l'une des célèbres zones de halte, d'hivernage et de nidification pour les migrations de l'avifaune. Plus de 300 espèces aviennes (65 % des espèces européennes) ont, jusqu'alors, pu être identifiées sur ce site.
+Les Oreillards roux et gris</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Faune_de_la_Picardie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_de_la_Picardie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Espèces historiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Oiseau</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'estuaire de la Somme constitue l'une des célèbres zones de halte, d'hivernage et de nidification pour les migrations de l'avifaune. Plus de 300 espèces aviennes (65 % des espèces européennes) ont, jusqu'alors, pu être identifiées sur ce site.
 Ce site est reconnu en particulier comme ayant une importance internationale pour la sauvegarde de 10 espèces et aussi de zone de nidification pour plus de 120 espèces. 
-Reptiles
-Neuf espèces de reptiles sont répertoriées :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Faune_de_la_Picardie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_de_la_Picardie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Espèces historiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Reptiles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Neuf espèces de reptiles sont répertoriées :
 Vipère péliade
 Lézard vivipare
 Lézard des murailles
 Couleuvre à collier
 Les Tortues de Floride sont de plus en plus présentes dans la région également...
-Amphibiens
-On retrouve en Picardie environ 16 espèces d'amphibiens :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Faune_de_la_Picardie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_de_la_Picardie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Espèces historiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Amphibiens</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>On retrouve en Picardie environ 16 espèces d'amphibiens :
 Triton alpestre
 Triton ponctué
 Triton palmé
@@ -607,39 +804,78 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Faune_de_la_Picardie</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Faune_de_la_Picardie</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Espèces introduites</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Poissons
-Anguille d'Europe
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Poissons</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Anguille d'Europe
 Carpe commune
 Silure glane
-Grand brochet
-Crustacés
-Écrevisse américaine
+Grand brochet</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Faune_de_la_Picardie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_de_la_Picardie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Espèces introduites</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Crustacés</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Écrevisse américaine
 ↑ (Duguy 1984,1990), et (Maurin &amp; Keith 1994)
  Portail de la Picardie   Portail de la zoologie                    </t>
         </is>
